--- a/docs.assets/COLOR-CARD.xlsx
+++ b/docs.assets/COLOR-CARD.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="内置色卡" sheetId="1" r:id="rId1"/>
+    <sheet name="填充样式" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>BLACK1</t>
   </si>
@@ -198,6 +199,63 @@
   </si>
   <si>
     <t>AUTOMATIC</t>
+  </si>
+  <si>
+    <t>NO_FILL</t>
+  </si>
+  <si>
+    <t>SOLID_FOREGROUND</t>
+  </si>
+  <si>
+    <t>FINE_DOTS</t>
+  </si>
+  <si>
+    <t>ALT_BARS</t>
+  </si>
+  <si>
+    <t>SPARSE_DOTS</t>
+  </si>
+  <si>
+    <t>THICK_HORZ_BANDS</t>
+  </si>
+  <si>
+    <t>THICK_VERT_BANDS</t>
+  </si>
+  <si>
+    <t>THICK_BACKWARD_DIAG</t>
+  </si>
+  <si>
+    <t>THICK_FORWARD_DIAG</t>
+  </si>
+  <si>
+    <t>BIG_SPOTS</t>
+  </si>
+  <si>
+    <t>BRICKS</t>
+  </si>
+  <si>
+    <t>THIN_HORZ_BANDS</t>
+  </si>
+  <si>
+    <t>THIN_VERT_BANDS</t>
+  </si>
+  <si>
+    <t>THIN_BACKWARD_DIAG</t>
+  </si>
+  <si>
+    <t>THIN_FORWARD_DIAG</t>
+  </si>
+  <si>
+    <t>SQUARES</t>
+  </si>
+  <si>
+    <t>DIAMONDS</t>
+  </si>
+  <si>
+    <t>LESS_DOTS</t>
+  </si>
+  <si>
+    <t>LEAST_DOTS</t>
   </si>
 </sst>
 </file>
@@ -210,13 +268,28 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -384,7 +457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="90">
+  <fills count="107">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +466,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkHorizontal">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkVertical">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkDown">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkTrellis">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightHorizontal">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightVertical">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGrid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -526,12 +690,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,31 +1186,22 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="59" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1061,182 +1210,213 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="76" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="60" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="61" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="61" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="62" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="68" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="69" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="70" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="71" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="72" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="73" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="74" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="75" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="76" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="77" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="78" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="79" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="77" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="78" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="78" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="79" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="80" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="81" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="82" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="83" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="84" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="85" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="86" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="87" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="88" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="89" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="90" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="91" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="92" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="93" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="94" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="95" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="96" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="97" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="98" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="99" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="100" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="101" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="102" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="103" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="104" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="105" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="106" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1772,8 +1952,8 @@
   <sheetPr/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1784,211 +1964,211 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="41" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="44" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="47" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="50" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="53" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="56" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="59" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="62" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:3">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="65" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="68" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="71" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:3">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="74" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:3">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="77" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1996,4 +2176,139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" ht="25" customHeight="1" spans="1:2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" ht="25" customHeight="1" spans="1:2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" ht="25" customHeight="1" spans="1:2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" ht="25" customHeight="1" spans="1:2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" ht="25" customHeight="1" spans="1:2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" ht="25" customHeight="1" spans="1:2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" ht="25" customHeight="1" spans="1:2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" ht="25" customHeight="1" spans="1:2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>